--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.3229397259242</v>
+        <v>213.0378951528039</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.7291631987135</v>
+        <v>291.4878467165478</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.6630816584179</v>
+        <v>263.6686557317686</v>
       </c>
       <c r="AD2" t="n">
-        <v>161322.9397259242</v>
+        <v>213037.8951528039</v>
       </c>
       <c r="AE2" t="n">
-        <v>220729.1631987134</v>
+        <v>291487.8467165478</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508721981416354e-06</v>
+        <v>3.616735205776211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>199663.0816584179</v>
+        <v>263668.6557317686</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.399939658932</v>
+        <v>172.029464722689</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.7365091117382</v>
+        <v>235.3783030378266</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.0142878913021</v>
+        <v>212.9141281514875</v>
       </c>
       <c r="AD3" t="n">
-        <v>120399.939658932</v>
+        <v>172029.464722689</v>
       </c>
       <c r="AE3" t="n">
-        <v>164736.5091117382</v>
+        <v>235378.3030378266</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.054609838387337e-06</v>
+        <v>4.403722303325391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>149014.2878913021</v>
+        <v>212914.1281514876</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.5198675668526</v>
+        <v>158.5161143436772</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.0593791817724</v>
+        <v>216.8887408823286</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.9744138704395</v>
+        <v>196.1891838578409</v>
       </c>
       <c r="AD4" t="n">
-        <v>115519.8675668526</v>
+        <v>158516.1143436772</v>
       </c>
       <c r="AE4" t="n">
-        <v>158059.3791817724</v>
+        <v>216888.7408823286</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.237373849166095e-06</v>
+        <v>4.66720667386501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>142974.4138704395</v>
+        <v>196189.1838578409</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.5976575306408</v>
+        <v>157.5939043074655</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.7975707251928</v>
+        <v>215.6269324257489</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.8330306419961</v>
+        <v>195.0478006293975</v>
       </c>
       <c r="AD5" t="n">
-        <v>114597.6575306408</v>
+        <v>157593.9043074655</v>
       </c>
       <c r="AE5" t="n">
-        <v>156797.5707251928</v>
+        <v>215626.9324257489</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.268488079864445e-06</v>
+        <v>4.712062953038614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>141833.0306419961</v>
+        <v>195047.8006293975</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.8732813501888</v>
+        <v>179.2924818256347</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.3301090311627</v>
+        <v>245.3158834597722</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.5014109061401</v>
+        <v>221.9032798454475</v>
       </c>
       <c r="AD2" t="n">
-        <v>128873.2813501888</v>
+        <v>179292.4818256347</v>
       </c>
       <c r="AE2" t="n">
-        <v>176330.1090311627</v>
+        <v>245315.8834597722</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.93217754757816e-06</v>
+        <v>4.292597624205476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159501.4109061401</v>
+        <v>221903.2798454475</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.1291600775909</v>
+        <v>153.0456856520133</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.0518194906242</v>
+        <v>209.4038590081166</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.5402072445495</v>
+        <v>189.4186486046037</v>
       </c>
       <c r="AD3" t="n">
-        <v>111129.1600775909</v>
+        <v>153045.6856520133</v>
       </c>
       <c r="AE3" t="n">
-        <v>152051.8194906242</v>
+        <v>209403.8590081166</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.380939578671357e-06</v>
+        <v>4.94956835576822e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>137540.2072445495</v>
+        <v>189418.6486046037</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.3437194909213</v>
+        <v>143.013503219484</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.6089009118646</v>
+        <v>195.6773844152844</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.3304373862881</v>
+        <v>177.0022094816789</v>
       </c>
       <c r="AD4" t="n">
-        <v>109343.7194909213</v>
+        <v>143013.503219484</v>
       </c>
       <c r="AE4" t="n">
-        <v>149608.9009118646</v>
+        <v>195677.3844152844</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.458135823675659e-06</v>
+        <v>5.062580754412616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>135330.4373862881</v>
+        <v>177002.2094816789</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.77671677375893</v>
+        <v>127.845961219269</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.4141733772205</v>
+        <v>174.9244843058733</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7767505145934</v>
+        <v>158.2299370318252</v>
       </c>
       <c r="AD2" t="n">
-        <v>96776.71677375893</v>
+        <v>127845.961219269</v>
       </c>
       <c r="AE2" t="n">
-        <v>132414.1733772205</v>
+        <v>174924.4843058733</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.877609617429546e-06</v>
+        <v>5.999140702822114e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.049479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>119776.7505145934</v>
+        <v>158229.9370318252</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.214572472016</v>
+        <v>143.1513078301462</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.2227315617199</v>
+        <v>195.8659347631026</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.744632268856</v>
+        <v>177.1727648489335</v>
       </c>
       <c r="AD2" t="n">
-        <v>103214.572472016</v>
+        <v>143151.3078301462</v>
       </c>
       <c r="AE2" t="n">
-        <v>141222.7315617198</v>
+        <v>195865.9347631026</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622693801635656e-06</v>
+        <v>5.474955291914872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>127744.632268856</v>
+        <v>177172.7648489335</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.20653464202385</v>
+        <v>133.2285213461746</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.5292926792636</v>
+        <v>182.2891405332955</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.3580759744748</v>
+        <v>164.8917208052646</v>
       </c>
       <c r="AD3" t="n">
-        <v>93206.53464202385</v>
+        <v>133228.5213461746</v>
       </c>
       <c r="AE3" t="n">
-        <v>127529.2926792636</v>
+        <v>182289.1405332955</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.751421186460004e-06</v>
+        <v>5.669500212172892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>115358.0759744748</v>
+        <v>164891.7208052645</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.45392426870031</v>
+        <v>131.0773902538133</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.8677820805422</v>
+        <v>179.3458680715223</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.6642604223683</v>
+        <v>162.2293501363332</v>
       </c>
       <c r="AD2" t="n">
-        <v>93453.9242687003</v>
+        <v>131077.3902538134</v>
       </c>
       <c r="AE2" t="n">
-        <v>127867.7820805422</v>
+        <v>179345.8680715223</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.926287213456834e-06</v>
+        <v>6.205449787503969e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>115664.2604223683</v>
+        <v>162229.3501363332</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.928149456202</v>
+        <v>183.2991522269541</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.8241113970483</v>
+        <v>250.7979866646776</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.4212488357086</v>
+        <v>226.8621788146587</v>
       </c>
       <c r="AD2" t="n">
-        <v>140928.149456202</v>
+        <v>183299.1522269541</v>
       </c>
       <c r="AE2" t="n">
-        <v>192824.1113970483</v>
+        <v>250797.9866646776</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822252061231857e-06</v>
+        <v>4.114522583913625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174421.2488357086</v>
+        <v>226862.1788146587</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.161387491225</v>
+        <v>156.532300753426</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.2006468103885</v>
+        <v>214.1743996084694</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.2930763078326</v>
+        <v>193.7338955055562</v>
       </c>
       <c r="AD3" t="n">
-        <v>114161.387491225</v>
+        <v>156532.300753426</v>
       </c>
       <c r="AE3" t="n">
-        <v>156200.6468103885</v>
+        <v>214174.3996084694</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.257435001587653e-06</v>
+        <v>4.748969825825218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>141293.0763078326</v>
+        <v>193733.8955055562</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.3622701923138</v>
+        <v>144.2590903106257</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.0025269167947</v>
+        <v>197.3816516248078</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.5910576812745</v>
+        <v>178.54382382068</v>
       </c>
       <c r="AD4" t="n">
-        <v>110362.2701923138</v>
+        <v>144259.0903106257</v>
       </c>
       <c r="AE4" t="n">
-        <v>151002.5269167947</v>
+        <v>197381.6516248078</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.416614420879787e-06</v>
+        <v>4.981035318687634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>136591.0576812745</v>
+        <v>178543.82382068</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.79228697119953</v>
+        <v>128.969096876418</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.5942566238389</v>
+        <v>176.4612080612321</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.6077170443391</v>
+        <v>159.6199980287784</v>
       </c>
       <c r="AD2" t="n">
-        <v>91792.28697119953</v>
+        <v>128969.096876418</v>
       </c>
       <c r="AE2" t="n">
-        <v>125594.2566238389</v>
+        <v>176461.2080612321</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889993798976832e-06</v>
+        <v>6.23268381647159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>113607.717044339</v>
+        <v>159619.9980287784</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6423944644562</v>
+        <v>163.7232072282995</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.8047347067787</v>
+        <v>224.0133150877904</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.7896863418346</v>
+        <v>202.6337987005384</v>
       </c>
       <c r="AD2" t="n">
-        <v>122642.3944644562</v>
+        <v>163723.2072282995</v>
       </c>
       <c r="AE2" t="n">
-        <v>167804.7347067787</v>
+        <v>224013.3150877904</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.137357714490016e-06</v>
+        <v>4.65848425932217e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>151789.6863418346</v>
+        <v>202633.7987005384</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.15991200293161</v>
+        <v>138.240635258224</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.9384779951547</v>
+        <v>189.146935906618</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.2510162356583</v>
+        <v>171.0950178131355</v>
       </c>
       <c r="AD3" t="n">
-        <v>97159.91200293161</v>
+        <v>138240.6352582239</v>
       </c>
       <c r="AE3" t="n">
-        <v>132938.4779951547</v>
+        <v>189146.935906618</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.598179208332585e-06</v>
+        <v>5.342731919545349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>120251.0162356583</v>
+        <v>171095.0178131355</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.8910534773802</v>
+        <v>167.5983327395925</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.2496932889797</v>
+        <v>229.3154327708107</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8104243154903</v>
+        <v>207.4298897134619</v>
       </c>
       <c r="AD2" t="n">
-        <v>125891.0534773802</v>
+        <v>167598.3327395925</v>
       </c>
       <c r="AE2" t="n">
-        <v>172249.6932889797</v>
+        <v>229315.4327708107</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034959823973527e-06</v>
+        <v>4.462733847660164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155810.4243154903</v>
+        <v>207429.8897134619</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.5938783995282</v>
+        <v>142.0279923946656</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.5829352499668</v>
+        <v>194.3289650270994</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.4023884472097</v>
+        <v>175.7824813473834</v>
       </c>
       <c r="AD3" t="n">
-        <v>108593.8783995282</v>
+        <v>142027.9923946656</v>
       </c>
       <c r="AE3" t="n">
-        <v>148582.9352499668</v>
+        <v>194328.9650270994</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.477697784753493e-06</v>
+        <v>5.113754552319754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>134402.3884472098</v>
+        <v>175782.4813473834</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.279604018364</v>
+        <v>141.7137180135013</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.1529311768509</v>
+        <v>193.8989609539835</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.0134233593174</v>
+        <v>175.393516259491</v>
       </c>
       <c r="AD4" t="n">
-        <v>108279.604018364</v>
+        <v>141713.7180135013</v>
       </c>
       <c r="AE4" t="n">
-        <v>148152.9311768509</v>
+        <v>193898.9609539835</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.495711513378522e-06</v>
+        <v>5.140242704097733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>134013.4233593174</v>
+        <v>175393.516259491</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.9191943575227</v>
+        <v>200.411165607497</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.7578115710497</v>
+        <v>274.2113983006748</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.3114520106514</v>
+        <v>248.0410473050534</v>
       </c>
       <c r="AD2" t="n">
-        <v>148919.1943575226</v>
+        <v>200411.165607497</v>
       </c>
       <c r="AE2" t="n">
-        <v>203757.8115710497</v>
+        <v>274211.3983006748</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.59827880603677e-06</v>
+        <v>3.759118341225512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>184311.4520106514</v>
+        <v>248041.0473050534</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.6816452426646</v>
+        <v>160.5916212843099</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.017218768717</v>
+        <v>219.7285410434046</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6499613985609</v>
+        <v>198.7579574772294</v>
       </c>
       <c r="AD3" t="n">
-        <v>117681.6452426646</v>
+        <v>160591.6212843099</v>
       </c>
       <c r="AE3" t="n">
-        <v>161017.2187687171</v>
+        <v>219728.5410434045</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.148506982016558e-06</v>
+        <v>4.555173338625744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>145649.9613985609</v>
+        <v>198757.9574772294</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.4077325761421</v>
+        <v>156.1471164171953</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.1694629066645</v>
+        <v>213.6473734065051</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.3603071486039</v>
+        <v>193.2571679446212</v>
       </c>
       <c r="AD4" t="n">
-        <v>113407.7325761421</v>
+        <v>156147.1164171953</v>
       </c>
       <c r="AE4" t="n">
-        <v>155169.4629066645</v>
+        <v>213647.3734065051</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.300263235119681e-06</v>
+        <v>4.774730113329905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>140360.3071486039</v>
+        <v>193257.1679446212</v>
       </c>
     </row>
     <row r="5">
@@ -6084,28 +6084,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.0709216335179</v>
+        <v>147.3989919753852</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.7086233159162</v>
+        <v>201.6778036052146</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.943449441604</v>
+        <v>182.4299570857654</v>
       </c>
       <c r="AD5" t="n">
-        <v>113070.9216335179</v>
+        <v>147398.9919753852</v>
       </c>
       <c r="AE5" t="n">
-        <v>154708.6233159162</v>
+        <v>201677.8036052146</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.325132438147589e-06</v>
+        <v>4.810710192533362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH5" t="n">
-        <v>139943.449441604</v>
+        <v>182429.9570857653</v>
       </c>
     </row>
   </sheetData>
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.7399861059611</v>
+        <v>147.2190322719552</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.0463580259539</v>
+        <v>201.43157479972</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.1078985933473</v>
+        <v>182.2072280118828</v>
       </c>
       <c r="AD2" t="n">
-        <v>106739.9861059611</v>
+        <v>147219.0322719552</v>
       </c>
       <c r="AE2" t="n">
-        <v>146046.3580259539</v>
+        <v>201431.57479972</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.456703288738702e-06</v>
+        <v>5.190878143982441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>132107.8985933473</v>
+        <v>182207.2280118828</v>
       </c>
     </row>
     <row r="3">
@@ -6487,28 +6487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0242935898122</v>
+        <v>135.4076200311585</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9623836005769</v>
+        <v>185.2706794891382</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.5091315517238</v>
+        <v>167.5887058677787</v>
       </c>
       <c r="AD3" t="n">
-        <v>103024.2935898122</v>
+        <v>135407.6200311585</v>
       </c>
       <c r="AE3" t="n">
-        <v>140962.3836005769</v>
+        <v>185270.6794891382</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674766049315599e-06</v>
+        <v>5.518339636434726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>127509.1315517238</v>
+        <v>167588.7058677787</v>
       </c>
     </row>
   </sheetData>
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.32726540015371</v>
+        <v>129.5328845059837</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.5897494781448</v>
+        <v>177.2326071685583</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.7945172472859</v>
+        <v>160.3177758879671</v>
       </c>
       <c r="AD2" t="n">
-        <v>90327.2654001537</v>
+        <v>129532.8845059837</v>
       </c>
       <c r="AE2" t="n">
-        <v>123589.7494781448</v>
+        <v>177232.6071685583</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.838971116335531e-06</v>
+        <v>5.888009468730474e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.997395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>111794.5172472859</v>
+        <v>160317.7758879671</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.07674974626379</v>
+        <v>125.7498796151801</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0882034929506</v>
+        <v>172.0565329825664</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6727679315583</v>
+        <v>155.6356989576188</v>
       </c>
       <c r="AD2" t="n">
-        <v>95076.74974626378</v>
+        <v>125749.8796151801</v>
       </c>
       <c r="AE2" t="n">
-        <v>130088.2034929506</v>
+        <v>172056.5329825664</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.918741762556489e-06</v>
+        <v>6.122956705380748e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>117672.7679315582</v>
+        <v>155635.6989576188</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.19374911095682</v>
+        <v>133.5672785607592</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.9847754191426</v>
+        <v>182.7526430992035</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.2928950984796</v>
+        <v>165.3109873368124</v>
       </c>
       <c r="AD2" t="n">
-        <v>97193.74911095682</v>
+        <v>133567.2785607592</v>
       </c>
       <c r="AE2" t="n">
-        <v>132984.7754191426</v>
+        <v>182752.6430992035</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.803285780569274e-06</v>
+        <v>6.198124063935709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>120292.8950984796</v>
+        <v>165310.9873368124</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.4212832739499</v>
+        <v>164.8220101240347</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.8704447380766</v>
+        <v>225.516745685497</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.7536865034793</v>
+        <v>203.9937439920785</v>
       </c>
       <c r="AD2" t="n">
-        <v>123421.2832739499</v>
+        <v>164822.0101240347</v>
       </c>
       <c r="AE2" t="n">
-        <v>168870.4447380766</v>
+        <v>225516.745685497</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.124368050269301e-06</v>
+        <v>4.615881384499841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>152753.6865034793</v>
+        <v>203993.7439920786</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.8076666783643</v>
+        <v>139.9965387437997</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.138961570972</v>
+        <v>191.5494405205762</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1916641859988</v>
+        <v>173.2682307586747</v>
       </c>
       <c r="AD3" t="n">
-        <v>106807.6666783643</v>
+        <v>139996.5387437997</v>
       </c>
       <c r="AE3" t="n">
-        <v>146138.9615709721</v>
+        <v>191549.4405205761</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.540899577379542e-06</v>
+        <v>5.231257067233419e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.049479166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>132191.6641859988</v>
+        <v>173268.2307586747</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.9553468351587</v>
+        <v>140.144218900594</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.3410240766866</v>
+        <v>191.7515030262907</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.3744421297646</v>
+        <v>173.4510087024404</v>
       </c>
       <c r="AD4" t="n">
-        <v>106955.3468351587</v>
+        <v>140144.218900594</v>
       </c>
       <c r="AE4" t="n">
-        <v>146341.0240766866</v>
+        <v>191751.5030262907</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.539644000342918e-06</v>
+        <v>5.229402101820603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH4" t="n">
-        <v>132374.4421297646</v>
+        <v>173451.0087024404</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7344101461322</v>
+        <v>195.7377149897791</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0320051933786</v>
+        <v>267.8169769874264</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1321085574435</v>
+        <v>242.2569005873128</v>
       </c>
       <c r="AD2" t="n">
-        <v>144734.4101461322</v>
+        <v>195737.7149897791</v>
       </c>
       <c r="AE2" t="n">
-        <v>198032.0051933785</v>
+        <v>267816.9769874264</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.713884520585691e-06</v>
+        <v>3.9410190127892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>179132.1085574435</v>
+        <v>242256.9005873128</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.5092547182321</v>
+        <v>158.1541689217648</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.0448582140841</v>
+        <v>216.3935111881631</v>
       </c>
       <c r="AC3" t="n">
-        <v>142.9612787635269</v>
+        <v>195.7412181906272</v>
       </c>
       <c r="AD3" t="n">
-        <v>115509.2547182321</v>
+        <v>158154.1689217648</v>
       </c>
       <c r="AE3" t="n">
-        <v>158044.8582140841</v>
+        <v>216393.5111881631</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223709061408161e-06</v>
+        <v>4.681370414378779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>142961.2787635269</v>
+        <v>195741.2181906272</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.8839288547916</v>
+        <v>145.9999497261688</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.084527429638</v>
+        <v>199.7635722784496</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.4743549872789</v>
+        <v>180.6984173101856</v>
       </c>
       <c r="AD4" t="n">
-        <v>111883.9288547916</v>
+        <v>145999.9497261688</v>
       </c>
       <c r="AE4" t="n">
-        <v>153084.527429638</v>
+        <v>199763.5722784496</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.362422141454182e-06</v>
+        <v>4.88280525128405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>138474.3549872789</v>
+        <v>180698.4173101856</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3132651706469</v>
+        <v>144.8366567916208</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9895231491154</v>
+        <v>198.1719035645396</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6291195363313</v>
+        <v>179.2586552244096</v>
       </c>
       <c r="AD2" t="n">
-        <v>102313.2651706469</v>
+        <v>144836.6567916208</v>
       </c>
       <c r="AE2" t="n">
-        <v>139989.5231491154</v>
+        <v>198171.9035645396</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.501967218452369e-06</v>
+        <v>5.837570709308812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>126629.1195363313</v>
+        <v>179258.6552244096</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.2580459422151</v>
+        <v>132.0282993540292</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.1774815309032</v>
+        <v>180.6469438535857</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.0854552234351</v>
+        <v>163.4062530718282</v>
       </c>
       <c r="AD2" t="n">
-        <v>100258.0459422151</v>
+        <v>132028.2993540292</v>
       </c>
       <c r="AE2" t="n">
-        <v>137177.4815309032</v>
+        <v>180646.9438535857</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.761981941678284e-06</v>
+        <v>5.725385227838175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.049479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>124085.4552234351</v>
+        <v>163406.2530718282</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.72623359743572</v>
+        <v>131.3535976219429</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.5038794837861</v>
+        <v>179.7237871780061</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.5259653716878</v>
+        <v>162.5712011737071</v>
       </c>
       <c r="AD3" t="n">
-        <v>91726.23359743573</v>
+        <v>131353.5976219429</v>
       </c>
       <c r="AE3" t="n">
-        <v>125503.8794837861</v>
+        <v>179723.7871780061</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.808123917529626e-06</v>
+        <v>5.795609006425662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.932291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>113525.9653716878</v>
+        <v>162571.2011737071</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1405349044158</v>
+        <v>158.967180113459</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6991389136222</v>
+        <v>217.5059089681609</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.316624603317</v>
+        <v>196.7474502877625</v>
       </c>
       <c r="AD2" t="n">
-        <v>110140.5349044158</v>
+        <v>158967.180113459</v>
       </c>
       <c r="AE2" t="n">
-        <v>150699.1389136222</v>
+        <v>217505.9089681609</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.303788758703015e-06</v>
+        <v>4.93226156865526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>136316.624603317</v>
+        <v>196747.4502877625</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.68649754704552</v>
+        <v>136.4322624576293</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.9224873341542</v>
+        <v>186.6726404610683</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.4274288938824</v>
+        <v>168.8568656522128</v>
       </c>
       <c r="AD3" t="n">
-        <v>95686.49754704552</v>
+        <v>136432.2624576293</v>
       </c>
       <c r="AE3" t="n">
-        <v>130922.4873341542</v>
+        <v>186672.6404610683</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.661803603403255e-06</v>
+        <v>5.466745758926642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>118427.4288938824</v>
+        <v>168856.8656522128</v>
       </c>
     </row>
   </sheetData>
